--- a/labels_Q18.xlsx
+++ b/labels_Q18.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au473419_uni_au_dk/Documents/Desktop/PHD/Theme 4 - Survey/Data/pulses23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{2DC941E5-EBFB-44E4-8E5E-4BE9D7A9BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B67C35-6E98-48A4-9A4C-D67272F67295}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{2DC941E5-EBFB-44E4-8E5E-4BE9D7A9BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54936DFB-1FCD-40E6-A8BC-24D1B56EF0AE}"/>
   <bookViews>
     <workbookView xWindow="53880" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{5CD361D4-044E-478F-987A-A4C343269E59}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,9 +50,6 @@
     <t>Thriving physically</t>
   </si>
   <si>
-    <t xml:space="preserve">Environmental sustainability benefits </t>
-  </si>
-  <si>
     <t xml:space="preserve">Official dietary guidelines </t>
   </si>
   <si>
@@ -62,33 +59,12 @@
     <t xml:space="preserve">Ethical production (fair trade) </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Minimal processing and high naturalness </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Knowledge protein</t>
   </si>
   <si>
     <t>Local production</t>
   </si>
   <si>
-    <t>Transparency production</t>
-  </si>
-  <si>
-    <t>Greater availability out</t>
-  </si>
-  <si>
     <t>Product diversity</t>
   </si>
   <si>
@@ -107,12 +83,6 @@
     <t xml:space="preserve">Lower prices </t>
   </si>
   <si>
-    <t>Knowledge recipes</t>
-  </si>
-  <si>
-    <t>Eating habits other people</t>
-  </si>
-  <si>
     <t>Diet variation</t>
   </si>
   <si>
@@ -122,7 +92,25 @@
     <t>Trend / lifestyle / popularity</t>
   </si>
   <si>
-    <t>Increased visibility in store</t>
+    <t>Eating habits of close circle</t>
+  </si>
+  <si>
+    <t>Increased visibility</t>
+  </si>
+  <si>
+    <t>Environmentally sustainable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural and low processing </t>
+  </si>
+  <si>
+    <t>Transparent production</t>
+  </si>
+  <si>
+    <t>Greater availability when eating out</t>
+  </si>
+  <si>
+    <t>Knowledge on recipes</t>
   </si>
 </sst>
 </file>
@@ -144,11 +132,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,12 +146,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -176,10 +178,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,167 +518,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7675E791-4E30-4049-B3EB-62BAEF3CF398}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="65" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="52" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="65" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="39" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="39" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="52" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="52" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="39" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C26" s="2"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
